--- a/Data/ChildCareSubsidyCC.xlsx
+++ b/Data/ChildCareSubsidyCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -62,7 +62,7 @@
     <t>RAPID Team</t>
   </si>
   <si>
-    <t>36</t>
+    <t>36, 40</t>
   </si>
   <si>
     <t>What percentage of families in your program use government subsidies to pay for child care?</t>
@@ -87,6 +87,38 @@
   </si>
   <si>
     <t xml:space="preserve">How does including government funding support your program? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about the staff recruitment crisis </t>
+  </si>
+  <si>
+    <t>● Strongly agree
+● Agree
+● Neither agree nor disagree
+● Disagree
+● Strongly disagree
+● N/A</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about retaining the employees I do have </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about how I am going to stay afloat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about how I am going to afford higher wages for my myself and employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about how I am going to afford benefits for my myself and employees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please  rate your level of agreement with the following statement: Federal support would allow me to provide higher wages and benefits to myself my employees </t>
+  </si>
+  <si>
+    <t>Please  rate your level of agreement with the following statement: Federal support would allow me to stay afloat</t>
   </si>
 </sst>
 </file>
@@ -137,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -173,11 +205,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -198,14 +239,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1416,7 +1454,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="242.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1472,53 +1510,95 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="102" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="153" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="153" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="153" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="102" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="170.1" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="102" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="76.5" customHeight="1">
       <c r="A14" s="7"/>

--- a/Data/ChildCareSubsidyCC.xlsx
+++ b/Data/ChildCareSubsidyCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Does your program serve families that receive child care subsidies? Select all that apply.</t>
@@ -62,7 +62,7 @@
     <t>RAPID Team</t>
   </si>
   <si>
-    <t>36, 40</t>
+    <t>10/26/2021-11/01/2021 11/19/2021-11/23/2021</t>
   </si>
   <si>
     <t>What percentage of families in your program use government subsidies to pay for child care?</t>
@@ -100,7 +100,7 @@
 ● N/A</t>
   </si>
   <si>
-    <t>40</t>
+    <t>11/19/2021-11/23/2021</t>
   </si>
   <si>
     <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about retaining the employees I do have </t>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>

--- a/Data/ChildCareSubsidyCC.xlsx
+++ b/Data/ChildCareSubsidyCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Question</t>
   </si>
@@ -62,7 +62,7 @@
     <t>RAPID Team</t>
   </si>
   <si>
-    <t>10/26/2021-11/01/2021 11/19/2021-11/23/2021</t>
+    <t>10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022 46</t>
   </si>
   <si>
     <t>What percentage of families in your program use government subsidies to pay for child care?</t>
@@ -80,10 +80,24 @@
 ● Working with regulators and monitors</t>
   </si>
   <si>
+    <t xml:space="preserve">10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">● Administrative work/paper work
+● Working with families
+● Working with children
+● Working with regulators and monitors                                       ● Accepting child care subsidies does not make any of these aspects more difficult 
+● N/A 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">What changes have you made to your program to support children who receive public subsidies? </t>
   </si>
   <si>
     <t>{Free response]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022 46 </t>
   </si>
   <si>
     <t xml:space="preserve">How does including government funding support your program? </t>
@@ -100,7 +114,7 @@
 ● N/A</t>
   </si>
   <si>
-    <t>11/19/2021-11/23/2021</t>
+    <t>11/19/2021-11/23/2021 01/31/2022-02/07/2022 46</t>
   </si>
   <si>
     <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about retaining the employees I do have </t>
@@ -115,7 +129,7 @@
     <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about how I am going to afford benefits for my myself and employees </t>
   </si>
   <si>
-    <t xml:space="preserve">Please  rate your level of agreement with the following statement: Federal support would allow me to provide higher wages and benefits to myself my employees </t>
+    <t xml:space="preserve">Please  rate your level of agreement with the following statement: Federal support would allow me to provide higher wages and benefits to myself and/or my employees </t>
   </si>
   <si>
     <t>Please  rate your level of agreement with the following statement: Federal support would allow me to stay afloat</t>
@@ -1405,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1480,132 +1494,147 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="170.1" customHeight="1">
+    <row r="5" spans="1:5" ht="159.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="213" customHeight="1">
+    <row r="6" spans="1:5" ht="170.1" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="102" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
+    <row r="7" spans="1:5" ht="213" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1">
+    <row r="8" spans="1:5" ht="102" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="153" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="153" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="102" customHeight="1">
+    <row r="11" spans="1:5" ht="153" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="170.1" customHeight="1">
+    <row r="12" spans="1:5" ht="102" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1">
+    <row r="13" spans="1:5" ht="170.1" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:5" ht="102" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="160.5" customHeight="1">
+    <row r="15" spans="1:5" ht="76.5" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="160.5" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Data/ChildCareSubsidyCC.xlsx
+++ b/Data/ChildCareSubsidyCC.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miq9VMNJk3o4gY03vwTPwN1cj6WUQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhB4E/he37TdFCDDOhm9qkfijqbWA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -714,7 +714,9 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -748,7 +750,9 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -782,7 +786,9 @@
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
         <v>24</v>
@@ -816,7 +822,9 @@
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
         <v>24</v>
@@ -850,7 +858,9 @@
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
         <v>24</v>
@@ -884,7 +894,9 @@
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4" t="s">
         <v>24</v>
@@ -918,7 +930,9 @@
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="4" t="s">
         <v>24</v>
@@ -952,7 +966,9 @@
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4" t="s">
         <v>24</v>
@@ -986,7 +1002,9 @@
       <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
         <v>24</v>

--- a/Data/ChildCareSubsidyCC.xlsx
+++ b/Data/ChildCareSubsidyCC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -53,7 +53,7 @@
     <t>What percentage of families in your program use government subsidies to pay for child care?</t>
   </si>
   <si>
-    <t>[Free response]</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t xml:space="preserve">Does accepting child care subsidies make any of these aspects of your job more difficult? </t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">What changes have you made to your program to support children who receive public subsidies? </t>
-  </si>
-  <si>
-    <t>{Free response]</t>
   </si>
   <si>
     <t xml:space="preserve">How does including government funding support your program? </t>
@@ -535,7 +532,7 @@
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -711,8 +708,8 @@
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -745,9 +742,9 @@
     </row>
     <row r="9" ht="213.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -781,17 +778,17 @@
     </row>
     <row r="10" ht="102.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -817,17 +814,17 @@
     </row>
     <row r="11" ht="153.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -853,17 +850,17 @@
     </row>
     <row r="12" ht="153.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -889,17 +886,17 @@
     </row>
     <row r="13" ht="153.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -925,17 +922,17 @@
     </row>
     <row r="14" ht="102.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -961,17 +958,17 @@
     </row>
     <row r="15" ht="169.5" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -997,17 +994,17 @@
     </row>
     <row r="16" ht="102.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>

--- a/Data/ChildCareSubsidyCC.xlsx
+++ b/Data/ChildCareSubsidyCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhB4E/he37TdFCDDOhm9qkfijqbWA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="uKTxWV/LhlMfNb6z5oO+JH3e3WuGnN/YXQw9ul7xUew="/>
     </ext>
   </extLst>
 </workbook>
@@ -33,7 +33,8 @@
     <t>Dates Used</t>
   </si>
   <si>
-    <t>Does your program serve families that receive child care subsidies? Select all that apply.</t>
+    <t>[Display this question if "What best describes your role as a child care provider? Select all that apply." = Center director/admin]
+Does your program serve families that receive child care subsidies? Select all that apply.</t>
   </si>
   <si>
     <t>• Yes, state child care subsidy (also called voucher)
@@ -50,13 +51,15 @@
     <t>10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 05/09/2022-05/24/2022</t>
   </si>
   <si>
-    <t>What percentage of families in your program use government subsidies to pay for child care?</t>
+    <t>[Display this question if "Does your program serve families that receive child care subsidies? Select all that apply." = Yes, state child care subsidy (also called voucher) OR Yes, Head Start or Early Head Start OR Yes, state funded pre-kindergarten]
+What percentage of families in your program use government subsidies to pay for child care?</t>
   </si>
   <si>
     <t>Open ended response</t>
   </si>
   <si>
-    <t xml:space="preserve">Does accepting child care subsidies make any of these aspects of your job more difficult? </t>
+    <t xml:space="preserve">[Display this question if "Does your program serve families that receive child care subsidies? Select all that apply." = Yes, state child care subsidy (also called voucher) OR Yes, Head Start or Early Head Start OR Yes, state funded pre-kindergarten]
+Does accepting child care subsidies make any of these aspects of your job more difficult? </t>
   </si>
   <si>
     <t>• Administrative work/paper work
@@ -88,16 +91,20 @@
     <t>05/09/2022-05/24/2022</t>
   </si>
   <si>
-    <t>How many children that have received child care subsidies are waitlisted?</t>
+    <t>[Display this question if "Are there children that have received child care subsidies that are waitlisted in your program/center?" = Yes]
+How many children that have received child care subsidies are waitlisted?</t>
   </si>
   <si>
-    <t xml:space="preserve">What changes have you made to your program to support children who receive public subsidies? </t>
+    <t xml:space="preserve">[Display this question if "Does your program serve families that receive child care subsidies? Select all that apply." = Yes, state child care subsidy (also called voucher) OR Yes, Head Start or Early Head Start OR Yes, state funded pre-kindergarten]
+What changes have you made to your program to support children who receive public subsidies? </t>
   </si>
   <si>
-    <t xml:space="preserve">How does including government funding support your program? </t>
+    <t xml:space="preserve">[Display this question if "Does your program serve families that receive child care subsidies? Select all that apply." = Yes, state child care subsidy (also called voucher) OR Yes, Head Start or Early Head Start OR Yes, state funded pre-kindergarten]
+How does including government funding support your program? </t>
   </si>
   <si>
-    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about the staff recruitment crisis </t>
+    <t>[Display this question if "What best describes your role as a child care provider? Select all that apply." = Center director/admin]
+Please  rate your level of agreement with the following statement: I am concerned about the staff recruitment crisis</t>
   </si>
   <si>
     <t>• Strongly agree
@@ -111,22 +118,28 @@
     <t>11/19/2021-11/23/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about retaining the employees I do have </t>
+    <t xml:space="preserve">[Display this question if "What best describes your role as a child care provider? Select all that apply." = Center director/admin]
+Please  rate your level of agreement with the following statement: I am concerned about retaining the employees I do have </t>
   </si>
   <si>
-    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about how I am going to stay afloat </t>
+    <t xml:space="preserve">[Display this question if "What best describes your role as a child care provider? Select all that apply." = Center director/admin]
+Please  rate your level of agreement with the following statement: I am concerned about how I am going to stay afloat </t>
   </si>
   <si>
-    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about how I am going to afford higher wages for my myself and employees </t>
+    <t xml:space="preserve">[Display this question if "What best describes your role as a child care provider? Select all that apply." = Center director/admin]
+Please  rate your level of agreement with the following statement: I am concerned about how I am going to afford higher wages for my myself and employees </t>
   </si>
   <si>
-    <t xml:space="preserve">Please  rate your level of agreement with the following statement: I am concerned about how I am going to afford benefits for my myself and employees </t>
+    <t xml:space="preserve">[Display this question if "What best describes your role as a child care provider? Select all that apply." = Center director/admin]
+Please  rate your level of agreement with the following statement: I am concerned about how I am going to afford benefits for my myself and employees </t>
   </si>
   <si>
-    <t xml:space="preserve">Please  rate your level of agreement with the following statement: Federal support would allow me to provide higher wages and benefits to myself and/or my employees </t>
+    <t xml:space="preserve">[Display this question if "What best describes your role as a child care provider? Select all that apply." = Center director/admin]
+Please  rate your level of agreement with the following statement: Federal support would allow me to provide higher wages and benefits to myself and/or my employees </t>
   </si>
   <si>
-    <t>Please  rate your level of agreement with the following statement: Federal support would allow me to stay afloat</t>
+    <t>[Display this question if "What best describes your role as a child care provider? Select all that apply." = Center director/admin]
+Please  rate your level of agreement with the following statement: Federal support would allow me to stay afloat</t>
   </si>
 </sst>
 </file>
@@ -211,21 +224,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -637,7 +650,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="169.5" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -671,7 +684,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="169.5" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -777,7 +790,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="102.0" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -813,7 +826,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="153.0" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -849,7 +862,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="153.0" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -885,7 +898,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="153.0" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -921,7 +934,7 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="102.0" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -930,7 +943,7 @@
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
@@ -957,7 +970,7 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="169.5" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -966,7 +979,7 @@
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="4" t="s">
         <v>23</v>
       </c>
@@ -993,7 +1006,7 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="102.0" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1002,7 +1015,7 @@
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
@@ -1029,7 +1042,7 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="76.5" customHeight="1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1057,8 +1070,8 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="160.5" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>

--- a/Data/ChildCareSubsidyCC.xlsx
+++ b/Data/ChildCareSubsidyCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="uKTxWV/LhlMfNb6z5oO+JH3e3WuGnN/YXQw9ul7xUew="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhB4E/he37TdFCDDOhm9qkfijqbWA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -48,7 +48,7 @@
     <t>RAPID Team</t>
   </si>
   <si>
-    <t>10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 05/09/2022-05/24/2022</t>
+    <t>10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022 01/03/2022-01/24/2022 05/09/2022-05/24/2022 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>[Display this question if "Does your program serve families that receive child care subsidies? Select all that apply." = Yes, state child care subsidy (also called voucher) OR Yes, Head Start or Early Head Start OR Yes, state funded pre-kindergarten]
@@ -68,7 +68,7 @@
 • Working with regulators and monitors</t>
   </si>
   <si>
-    <t xml:space="preserve">10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022 </t>
+    <t>10/26/2021-11/01/2021 11/19/2021-11/23/2021 01/31/2022-02/07/2022</t>
   </si>
   <si>
     <t xml:space="preserve">• Administrative work/paper work
@@ -88,7 +88,7 @@
 • I don't know  </t>
   </si>
   <si>
-    <t>05/09/2022-05/24/2022</t>
+    <t>05/09/2022-05/24/2022 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>[Display this question if "Are there children that have received child care subsidies that are waitlisted in your program/center?" = Yes]
@@ -588,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="2"/>
